--- a/scripts/List_of_CDs.xlsx
+++ b/scripts/List_of_CDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="23955" windowHeight="10545"/>
+    <workbookView xWindow="6780" yWindow="-150" windowWidth="23955" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="List_of_CDs" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="289">
   <si>
     <t>CONCERTA 27mg Tablets</t>
   </si>
@@ -32,6 +32,855 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>M-ESLON 60mg SR Capsules</t>
+  </si>
+  <si>
+    <t>ABSTRAL 300mcg Tablets</t>
+  </si>
+  <si>
+    <t>ABSTRAL 200mcg Tablets</t>
+  </si>
+  <si>
+    <t>ABSTRAL 100mcg Tablets</t>
+  </si>
+  <si>
+    <t>ACTIFED Allergy/Cold Tablets</t>
+  </si>
+  <si>
+    <t>ACTIFED 1.25mg Elixir</t>
+  </si>
+  <si>
+    <t>ACTIFED CC Chesty Liquicap</t>
+  </si>
+  <si>
+    <t>ACTIFED CC 30mg dry Liquicap</t>
+  </si>
+  <si>
+    <t>ACTIFED CHESTY  Liquid</t>
+  </si>
+  <si>
+    <t>ALFENTANIL 1mg/2ml Amps</t>
+  </si>
+  <si>
+    <t>ALFENTANIL 0.5mg/ml Amps</t>
+  </si>
+  <si>
+    <t>AMYTAL SODIUM 500mg Inj</t>
+  </si>
+  <si>
+    <t>BENADRYL CHESTY cough&amp;nasal Liquid</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>BENYLIN 60mg Elixir</t>
+  </si>
+  <si>
+    <t>BIODONE 2mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>BIODONE EXTRA FORTE 10mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>BIODONE FORTE 5mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>BISOLVON SINUS  Liquid</t>
+  </si>
+  <si>
+    <t>BISOLVON SINUS  Elixir</t>
+  </si>
+  <si>
+    <t>BUPAFEN Epidural Infusion</t>
+  </si>
+  <si>
+    <t>BUPAFEN 200ml Bag Infusion</t>
+  </si>
+  <si>
+    <t>BUPAFEN+FENTANYL 0.125% 2mcg/ml Epi Infusion</t>
+  </si>
+  <si>
+    <t>BUPIVACAINE &amp; FENTANYL BIOMED 100ml Bag Infusion</t>
+  </si>
+  <si>
+    <t>BUPIVACAINE &amp; FENTANYL BIOMED 15ml Injection</t>
+  </si>
+  <si>
+    <t>BUPIVACAINE &amp; FENTANYL BIOMED 20ml Injection</t>
+  </si>
+  <si>
+    <t>BUPIVACAINE+FENTANYL 0.125%+2mcg/ml Bag</t>
+  </si>
+  <si>
+    <t>BUPIVACAINE+FENTANYL 200ml infusion Bag</t>
+  </si>
+  <si>
+    <t>CHLOROFORM+MORPHINE  Tincture</t>
+  </si>
+  <si>
+    <t>CLARATYNE 120mg+5mg Repetabs</t>
+  </si>
+  <si>
+    <t>CLARATYNE COLD 120mg+5mg Tablets</t>
+  </si>
+  <si>
+    <t>COCAINE  Powder</t>
+  </si>
+  <si>
+    <t>COCAINE HCL  Powder</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE 50mg/ml Vials</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE BP Linctus</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE  Powder</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE 25mg/5ml BPC Syrup</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE 60mg Tablets</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE 30mg Tablets</t>
+  </si>
+  <si>
+    <t>CODEINE PHOSPHATE 15mg Tablets</t>
+  </si>
+  <si>
+    <t>CODRAL Original Tablets</t>
+  </si>
+  <si>
+    <t>CODRAL Day/Night Tablets</t>
+  </si>
+  <si>
+    <t>CODRAL COLD/FLU  Caplets</t>
+  </si>
+  <si>
+    <t>CODRAL COLD/FLU  Tablets</t>
+  </si>
+  <si>
+    <t>CODRAL DAY/NIGHT  Tablets</t>
+  </si>
+  <si>
+    <t>COLDREX H+C COLD 500mg Caplets</t>
+  </si>
+  <si>
+    <t>COLDREX HEAD COLD 500mg Caplets</t>
+  </si>
+  <si>
+    <t>CONCERTA 54mg Tablets</t>
+  </si>
+  <si>
+    <t>CONCERTA 36mg Tablets</t>
+  </si>
+  <si>
+    <t>CONCERTA 18mg Tablets</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>DAY + NIGHT  Capsules</t>
+  </si>
+  <si>
+    <t>DEXAMFETAMINE 5mg Tablets</t>
+  </si>
+  <si>
+    <t>DEXAMFETAMINE PSM 5mg Tablets</t>
+  </si>
+  <si>
+    <t>DHC CONTINUS 60mg LA Tablets</t>
+  </si>
+  <si>
+    <t>DIMETAPP DAY NIGHT Day/Night Capsules</t>
+  </si>
+  <si>
+    <t>DUROGESIC 100mcg Matrix Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 75mcg Matrix Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 50mcg Matrix Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 25mcg Matrix Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 12.5mcg Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 75mcg Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 50mcg Patches</t>
+  </si>
+  <si>
+    <t>DUROGESIC 25mcg Patches</t>
+  </si>
+  <si>
+    <t>DUROTUSS Decong. Oral liquid</t>
+  </si>
+  <si>
+    <t>DUROTUSS SINUS  Liquid</t>
+  </si>
+  <si>
+    <t>EPHEDRINE  Elixir</t>
+  </si>
+  <si>
+    <t>EPHEDRINE 30mg Tablets</t>
+  </si>
+  <si>
+    <t>EPHEDRINE  Powder</t>
+  </si>
+  <si>
+    <t>EPHEDRINE 30mg/1mL Amps</t>
+  </si>
+  <si>
+    <t>EPHEDRINE DBL 30mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>EPHEDRINE SULPHATE 3mg/ml 10ml Syringe</t>
+  </si>
+  <si>
+    <t>EPHEDRINE SULPHATE DB 30mg/ml Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL 100mcg/2ml 2ml Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL 500mcg/10ml 10ml Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL 50mcg/ml 1ml Nasal Spray</t>
+  </si>
+  <si>
+    <t>FENTANYL BIOMED 20mcg/0.4ml Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 20mcg/ml 50ml Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 10mcg/ml 10ml Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE PCA Bags</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 10mcg/ml 50ml Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 500mcg/ml 50ml Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 500mcg/ml 10ml Duo Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE 100mcg/2ml Duo Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE BIOMED 20mcg/ml 100ml Bags</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE BIOMED 500mcg/50ml PFS Syringe</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE BIOMED 1000mcg/100ml Bags</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE BIOMED 1000mcg/50ml 50ml Syringes</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE DB 100mcg/2ml Amps</t>
+  </si>
+  <si>
+    <t>FENTANYL CITRATE DB 50mcg/ml 10ml Injection</t>
+  </si>
+  <si>
+    <t>FENTANYL INFUSION BIOMED 500mcg/50ml Bags</t>
+  </si>
+  <si>
+    <t>FENTANYL MYLAN 12.5mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL MYLAN 25mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL MYLAN 50mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL MYLAN 75mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL MYLAN 100mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL SANDOZ 12.5mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL SANDOZ 25mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL SANDOZ 50mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL SANDOZ 75mcg Patches</t>
+  </si>
+  <si>
+    <t>FENTANYL SANDOZ 100mcg Patches</t>
+  </si>
+  <si>
+    <t>KETALAR 100mg/ml 10ml Inj</t>
+  </si>
+  <si>
+    <t>KETALAR 100mg/ml  2ml Vials</t>
+  </si>
+  <si>
+    <t>KETALAR 100mg/ml 2ml Amps</t>
+  </si>
+  <si>
+    <t>KETAMINE 4mg/ml 50ml Syringes</t>
+  </si>
+  <si>
+    <t>KETAMINE 2mg/ml 50ml Syringes</t>
+  </si>
+  <si>
+    <t>KETAMINE 1mg/ml 100ml Bag</t>
+  </si>
+  <si>
+    <t>KETAMINE BIOMED 10mg/ml 10ml Injection</t>
+  </si>
+  <si>
+    <t>KETAMINE BIOMED 4mg/ml 50ml Syringe</t>
+  </si>
+  <si>
+    <t>KETAMINE BIOMED 10mg/ml 10ml Syringes</t>
+  </si>
+  <si>
+    <t>KETAMINE CLARIS 200mg/2ml Amps</t>
+  </si>
+  <si>
+    <t>LA MORPH 10mg LA Tablets</t>
+  </si>
+  <si>
+    <t>LA MORPH 30mg LA Tablets</t>
+  </si>
+  <si>
+    <t>LA MORPH 60mg LA bpk Tablets</t>
+  </si>
+  <si>
+    <t>LA MORPH 100mg LA bpk Tablets</t>
+  </si>
+  <si>
+    <t>LA MORPH 100mg LA Tablets</t>
+  </si>
+  <si>
+    <t>LA MORPH 60mg LA Tablets</t>
+  </si>
+  <si>
+    <t>M-ESLON 100mg SR Capsules</t>
+  </si>
+  <si>
+    <t>M-ESLON 30mg SR Capsules</t>
+  </si>
+  <si>
+    <t>M-ESLON 200mg SR Capsules</t>
+  </si>
+  <si>
+    <t>M-ESLON 10mg SR Capsules</t>
+  </si>
+  <si>
+    <t>METHADONE 10mg/ml Vials</t>
+  </si>
+  <si>
+    <t>METHADONE HCL 10mg/ml 1ml Inj</t>
+  </si>
+  <si>
+    <t>METHADONE HCL  Powder</t>
+  </si>
+  <si>
+    <t>METHADONE HCL 5mg/ml Syrup</t>
+  </si>
+  <si>
+    <t>METHADONE HCL 2mg/5ml Linctus</t>
+  </si>
+  <si>
+    <t>METHADONE HCL 10mg/ml Mart. Inj</t>
+  </si>
+  <si>
+    <t>METHAFORTE 2mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>METHAFORTE 10mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>METHATABS 5mg Tablets</t>
+  </si>
+  <si>
+    <t>MORPHINE 10mg/ml 100ml CADD Cassette</t>
+  </si>
+  <si>
+    <t>MORPHINE HCL  Powder</t>
+  </si>
+  <si>
+    <t>MORPHINE HCL PSM  Powder</t>
+  </si>
+  <si>
+    <t>MORPHINE LA ARROW 60mg LA bpk. Tablets</t>
+  </si>
+  <si>
+    <t>MORPHINE LA ARROW 100mg LA bpk. Tablets</t>
+  </si>
+  <si>
+    <t>MORPHINE LA ARROW 10mg LA bpk. Tablets</t>
+  </si>
+  <si>
+    <t>MORPHINE LA ARROW 30mg LA bpk. Tablets</t>
+  </si>
+  <si>
+    <t>MORPHINE MARTINDALE 10mg Supp.</t>
+  </si>
+  <si>
+    <t>MORPHINE MARTINDALE 20mg Supp.</t>
+  </si>
+  <si>
+    <t>MORPHINE MARTINDALE 30mg Supp.</t>
+  </si>
+  <si>
+    <t>MORPHINE SULF DBL 10mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>MORPHINE SULF DBL 15mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>MORPHINE SULF DBL 30mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>MORPHINE SULF DBL 5mg/ml Amps</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE  Powder</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 30mg/ml Inj+Syr</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 50ml Inj+Syr</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 50ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 5ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 2mg/ml 30ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 1ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 30ml Syringe</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 10ml PFS Syringe</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 60mg/60ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 500mcg/1ml 0.4ml Syringe</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml PCA Bags</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 0.3ml Inj</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE 1mg/ml 2ml Syringe</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE BIOMED 1mg/ml Bags</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE BIOMED 1mg/ml 10ml Syringes</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE BIOMED 1mg/ml 30ml Injection</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE BIOMED 1mg/ml 50ml Injection</t>
+  </si>
+  <si>
+    <t>MORPHINE SULPHATE BIOMED 2mg/ml 30ml Injection</t>
+  </si>
+  <si>
+    <t>MORPHINE TARTRATE 120mg/1.5ml Amps</t>
+  </si>
+  <si>
+    <t>MORPHINE TARTRATE DBL 400mg/5ml Amps</t>
+  </si>
+  <si>
+    <t>NAROPIN+FENTANYL 2mg/ml+2mcg/ml Polybag</t>
+  </si>
+  <si>
+    <t>NAROPIN+FENTANYL Theatre 200ml Polybags</t>
+  </si>
+  <si>
+    <t>NAROPIN+FENTANYL 0.2% 100ml Polybags</t>
+  </si>
+  <si>
+    <t>NORSPAN 5mcg/hr Patches</t>
+  </si>
+  <si>
+    <t>NORSPAN 10mcg/hr Patches</t>
+  </si>
+  <si>
+    <t>NORSPAN 20mcg/hr Patches</t>
+  </si>
+  <si>
+    <t>NYAL DECONGESTANT 20mg Elixir</t>
+  </si>
+  <si>
+    <t>NYAL DECONGESTANT 5mg Elixir</t>
+  </si>
+  <si>
+    <t>OPIUM BP Tincture</t>
+  </si>
+  <si>
+    <t>ORTHOXICOL 300mg-2 Capsules</t>
+  </si>
+  <si>
+    <t>ORTHOXICOL 200mg-5 Liquid</t>
+  </si>
+  <si>
+    <t>ORTHOXICOL 100mg-7 Liquid</t>
+  </si>
+  <si>
+    <t>ORTHOXICOL Infant Syrup</t>
+  </si>
+  <si>
+    <t>OXYCODONE 80mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE 40mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE 20mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE 10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE BNM 10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE BNM 40mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE BNM 80mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE BNM 5mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCODONE ORION 20mg/2ml Amps</t>
+  </si>
+  <si>
+    <t>OXYCODONE ORION 10mg/ml Amps</t>
+  </si>
+  <si>
+    <t>OXYCONTIN 80mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCONTIN 40mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCONTIN 20mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYCONTIN 10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYDONE BNM 10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYDONE BNM 20mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYDONE BNM 40mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYDONE BNM 80mg CR Tablets</t>
+  </si>
+  <si>
+    <t>OXYNORM 50mg/ml 1 ml Amps</t>
+  </si>
+  <si>
+    <t>OXYNORM 10mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>OXYNORM 20mg/2ml Amps</t>
+  </si>
+  <si>
+    <t>OXYNORM 5mg/5ml Liquid</t>
+  </si>
+  <si>
+    <t>OXYNORM 10mg Capsules</t>
+  </si>
+  <si>
+    <t>OXYNORM 5mg Capsules</t>
+  </si>
+  <si>
+    <t>PALLIDONE 5mg Tablets</t>
+  </si>
+  <si>
+    <t>PETHIDINE 50mg Tablets</t>
+  </si>
+  <si>
+    <t>PETHIDINE 100mg Tablets</t>
+  </si>
+  <si>
+    <t>PETHIDINE 50mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE 75mg/1.5ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE 100mg/2ml 2ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE 10mg/ml 50ml Mono Inj</t>
+  </si>
+  <si>
+    <t>PETHIDINE 5mg/ml 50ml Epi. Syringe</t>
+  </si>
+  <si>
+    <t>PETHIDINE 5mg/ml Bag Solution</t>
+  </si>
+  <si>
+    <t>PETHIDINE 10mg/ml 60ml Injection</t>
+  </si>
+  <si>
+    <t>PETHIDINE 50mg 10ml Syringe</t>
+  </si>
+  <si>
+    <t>PETHIDINE DB 5mg/ml 50ml Injection</t>
+  </si>
+  <si>
+    <t>PETHIDINE DB 10mg/ml 50ml Injection</t>
+  </si>
+  <si>
+    <t>PETHIDINE DB 100mg/2ml 2ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE DBL 50mg/10ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE DBL 75mg/1.5ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE DBL 50mg/ml 1ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE DBL 100mg/2ml 2ml Amps</t>
+  </si>
+  <si>
+    <t>PETHIDINE HCL 1G/100ml infusion Bag</t>
+  </si>
+  <si>
+    <t>PHENSEDYL 3.6mg/5ml Linctus</t>
+  </si>
+  <si>
+    <t>PHOLCODINE  Powder</t>
+  </si>
+  <si>
+    <t>PHOLCODINE 10mg/5ml Forte Linctus</t>
+  </si>
+  <si>
+    <t>PHOLCODINE 5mg/5ml Linctus</t>
+  </si>
+  <si>
+    <t>RA-MORPH 1mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>RA-MORPH 2mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>RA-MORPH 5mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>RA-MORPH 10mg/ml Liquid</t>
+  </si>
+  <si>
+    <t>RAPIFEN 0.5/ml  2ml Inj</t>
+  </si>
+  <si>
+    <t>REMIFENTANIL AFT 2mg Vials</t>
+  </si>
+  <si>
+    <t>REMIFENTANIL AFT 1mg Vials</t>
+  </si>
+  <si>
+    <t>RITALIN 10mg Tablets</t>
+  </si>
+  <si>
+    <t>RITALIN 20mg SR Tablets</t>
+  </si>
+  <si>
+    <t>RITALIN 40mg LA Capsules</t>
+  </si>
+  <si>
+    <t>RITALIN 20mg LA Capsules</t>
+  </si>
+  <si>
+    <t>RITALIN 30mg LA Capsules</t>
+  </si>
+  <si>
+    <t>RITALIN 10mg LA Capsules</t>
+  </si>
+  <si>
+    <t>RMS 30mg Supp.</t>
+  </si>
+  <si>
+    <t>RMS 20mg Supp.</t>
+  </si>
+  <si>
+    <t>ROBITUSSIN 60mg Elixir</t>
+  </si>
+  <si>
+    <t>ROBITUSSIN DM-P Extra 30/60 /10ml Syrup</t>
+  </si>
+  <si>
+    <t>ROBITUSSIN NIGHT Child Liquid</t>
+  </si>
+  <si>
+    <t>RUBIFEN 5mg Tablets</t>
+  </si>
+  <si>
+    <t>RUBIFEN 20mg Tablets</t>
+  </si>
+  <si>
+    <t>RUBIFEN 20mg SR Tablets</t>
+  </si>
+  <si>
+    <t>RUBIFEN 10mg Tablets</t>
+  </si>
+  <si>
+    <t>SATIVEX 10ml 2.7mg/dose Oral Spray</t>
+  </si>
+  <si>
+    <t>SEVREDOL 10mg Tablets</t>
+  </si>
+  <si>
+    <t>SEVREDOL 20mg Tablets</t>
+  </si>
+  <si>
+    <t>SEVREDOL 50mg Tablets</t>
+  </si>
+  <si>
+    <t>SINUTAB Sinus Pain Tablets</t>
+  </si>
+  <si>
+    <t>SINUTAB+ANTIHIST 325mg Tablets</t>
+  </si>
+  <si>
+    <t>SUBLIMAZE 100mcg/2ml Amps</t>
+  </si>
+  <si>
+    <t>SUBLIMAZE 500mcg/10ml Amps</t>
+  </si>
+  <si>
+    <t>SUBLIMAZE 1000mcg/20ml Amps</t>
+  </si>
+  <si>
+    <t>SUBOXONE 8+2mg Tablets</t>
+  </si>
+  <si>
+    <t>SUBOXONE 2+0.5mg Tablets</t>
+  </si>
+  <si>
+    <t>SUBUTEX 0.4mg Tablets</t>
+  </si>
+  <si>
+    <t>SUBUTEX 2mg Tablets</t>
+  </si>
+  <si>
+    <t>SUBUTEX 8mg Tablets</t>
+  </si>
+  <si>
+    <t>SUDAFED 30mg/5ml Liquid</t>
+  </si>
+  <si>
+    <t>SUDAFED 30mg/5ml Elixir</t>
+  </si>
+  <si>
+    <t>SUDAFED Congest + Pain Caplets</t>
+  </si>
+  <si>
+    <t>SUDAFED SINUS 30/500mg Pain Tablets</t>
+  </si>
+  <si>
+    <t>SUDAFED SINUS Pain + Allergy Caplets</t>
+  </si>
+  <si>
+    <t>SUDAFED SINUS 60mg Tablets</t>
+  </si>
+  <si>
+    <t>SUDAFED SINUS 12 HR  Tablets</t>
+  </si>
+  <si>
+    <t>SUDOMYL 60mg Tablets</t>
+  </si>
+  <si>
+    <t>SUDOMYL 30mg/5ml Elixir</t>
+  </si>
+  <si>
+    <t>TARGIN 40mg/20mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 5mg/2.5mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 20mg/10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 10mg/5mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 5/2.5mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 10/5mg Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 20/10mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TARGIN 40/20mg CR Tablets</t>
+  </si>
+  <si>
+    <t>TEMGESIC 0.3mg/ml Amps</t>
+  </si>
+  <si>
+    <t>TEMGESIC 0.2mg NX Tablets</t>
+  </si>
+  <si>
+    <t>ULTIVA 1mg Vial</t>
+  </si>
+  <si>
+    <t>ULTIVA 2mg Vial</t>
   </si>
 </sst>
 </file>
@@ -860,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A294" sqref="A294:XFD299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +1720,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -879,39 +1728,2778 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2480956</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2480948</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2480921</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>211702</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>602116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>792764</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>337412</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>337374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>224928</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2468417</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2454785</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>200549</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>224855</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>224871</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>338338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>589276</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>361372</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>461288</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>412325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>412341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2242931</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>486663</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2082977</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2308991</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2082985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2309009</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2308983</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2308975</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>461652</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2290510</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>358347</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>690961</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>742597</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>427810</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>316946</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>283932</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2285444</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>406716</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>316881</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>305375</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>288012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>276898</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>206776</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>206733</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>206717</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2312425</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2312433</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>339113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>768693</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>474479</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>223352</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>223336</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>2294524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2145081</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2145073</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2145065</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>788473</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>206547</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2461374</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>772887</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>435929</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2222949</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2222930</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2222922</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2222914</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2222892</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>204803</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>204730</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>204544</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2017199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2118599</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>261858</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>275336</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>287598</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2402874</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2036916</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>596205</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2090236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>226181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2381176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2381168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2377330</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2386348</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2288516</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2288508</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2161028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2160994</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2064758</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>311383</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>311375</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2458195</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2392755</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2392674</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2392666</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>763314</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>763322</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2392089</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2351927</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2351935</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2351943</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2351951</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2351978</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2472872</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2472880</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2472899</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2472902</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2472910</v>
+      </c>
+      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>204048</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>436895</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2245612</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2377357</v>
+      </c>
+      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2377349</v>
+      </c>
+      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2330075</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2461870</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2461862</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2384213</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2471272</v>
+      </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>346756</v>
+      </c>
+      <c r="B119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>346764</v>
+      </c>
+      <c r="B120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>346772</v>
+      </c>
+      <c r="B121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>346780</v>
+      </c>
+      <c r="B122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2155001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2155028</v>
+      </c>
+      <c r="B124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2155036</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2155044</v>
+      </c>
+      <c r="B126" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2106507</v>
+      </c>
+      <c r="B127" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2106493</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2106485</v>
+      </c>
+      <c r="B129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2106477</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2106469</v>
+      </c>
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2265710</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>271454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>309508</v>
+      </c>
+      <c r="B134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>392391</v>
+      </c>
+      <c r="B135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>765511</v>
+      </c>
+      <c r="B136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>774332</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2135906</v>
+      </c>
+      <c r="B138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2139049</v>
+      </c>
+      <c r="B139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>486574</v>
+      </c>
+      <c r="B140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>486566</v>
+      </c>
+      <c r="B141" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>365068</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>287512</v>
+      </c>
+      <c r="B143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>765503</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2289148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>316911</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>428841</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2383918</v>
+      </c>
+      <c r="B148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2383926</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2383934</v>
+      </c>
+      <c r="B150" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2383942</v>
+      </c>
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2249758</v>
+      </c>
+      <c r="B152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2148277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2148269</v>
+      </c>
+      <c r="B154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>395013</v>
+      </c>
+      <c r="B155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>395005</v>
+      </c>
+      <c r="B156" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>394998</v>
+      </c>
+      <c r="B157" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>347930</v>
+      </c>
+      <c r="B158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>283924</v>
+      </c>
+      <c r="B159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>316903</v>
+      </c>
+      <c r="B160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>461660</v>
+      </c>
+      <c r="B161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>461679</v>
+      </c>
+      <c r="B162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2017903</v>
+      </c>
+      <c r="B163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2017911</v>
+      </c>
+      <c r="B164" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2017938</v>
+      </c>
+      <c r="B165" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2017946</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2083019</v>
+      </c>
+      <c r="B167" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2109751</v>
+      </c>
+      <c r="B168" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2136724</v>
+      </c>
+      <c r="B169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2160978</v>
+      </c>
+      <c r="B170" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2161001</v>
+      </c>
+      <c r="B171" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2237210</v>
+      </c>
+      <c r="B172" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2288753</v>
+      </c>
+      <c r="B173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2392682</v>
+      </c>
+      <c r="B174" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2308967</v>
+      </c>
+      <c r="B175" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2308959</v>
+      </c>
+      <c r="B176" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2308940</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2308932</v>
+      </c>
+      <c r="B178" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>615137</v>
+      </c>
+      <c r="B179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>552453</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>317063</v>
+      </c>
+      <c r="B181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>317411</v>
+      </c>
+      <c r="B182" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2014602</v>
+      </c>
+      <c r="B183" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2077744</v>
+      </c>
+      <c r="B184" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2282054</v>
+      </c>
+      <c r="B185" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2282062</v>
+      </c>
+      <c r="B186" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2282070</v>
+      </c>
+      <c r="B187" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>779830</v>
+      </c>
+      <c r="B188" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>779849</v>
+      </c>
+      <c r="B189" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>290548</v>
+      </c>
+      <c r="B190" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>223573</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>223751</v>
+      </c>
+      <c r="B192" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>223778</v>
+      </c>
+      <c r="B193" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>223824</v>
+      </c>
+      <c r="B194" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>347868</v>
+      </c>
+      <c r="B195" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2495678</v>
+      </c>
+      <c r="B196" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2495651</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2495643</v>
+      </c>
+      <c r="B198" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2495635</v>
+      </c>
+      <c r="B199" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2452707</v>
+      </c>
+      <c r="B200" t="s">
+        <v>189</v>
+      </c>
+      <c r="C200" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>2452715</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B201" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C201" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2452723</v>
+      </c>
+      <c r="B202" t="s">
+        <v>190</v>
+      </c>
+      <c r="C202" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2452731</v>
+      </c>
+      <c r="B203" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2495627</v>
+      </c>
+      <c r="B204" t="s">
+        <v>192</v>
+      </c>
+      <c r="C204" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2405695</v>
+      </c>
+      <c r="B205" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2405687</v>
+      </c>
+      <c r="B206" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>2194767</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B207" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C207" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2177803</v>
+      </c>
+      <c r="B208" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2177781</v>
+      </c>
+      <c r="B209" t="s">
+        <v>196</v>
+      </c>
+      <c r="C209" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2177773</v>
+      </c>
+      <c r="B210" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2177765</v>
+      </c>
+      <c r="B211" t="s">
+        <v>198</v>
+      </c>
+      <c r="C211" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2440288</v>
+      </c>
+      <c r="B212" t="s">
+        <v>199</v>
+      </c>
+      <c r="C212" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2440296</v>
+      </c>
+      <c r="B213" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2440318</v>
+      </c>
+      <c r="B214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2440326</v>
+      </c>
+      <c r="B215" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2377144</v>
+      </c>
+      <c r="B216" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2248794</v>
+      </c>
+      <c r="B217" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2248786</v>
+      </c>
+      <c r="B218" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2243687</v>
+      </c>
+      <c r="B219" t="s">
+        <v>206</v>
+      </c>
+      <c r="C219" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>2179776</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B220" t="s">
         <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2179768</v>
+      </c>
+      <c r="B221" t="s">
+        <v>207</v>
+      </c>
+      <c r="C221" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2179741</v>
+      </c>
+      <c r="B222" t="s">
+        <v>208</v>
+      </c>
+      <c r="C222" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2127679</v>
+      </c>
+      <c r="B223" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2127660</v>
+      </c>
+      <c r="B224" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>779725</v>
+      </c>
+      <c r="B225" t="s">
+        <v>209</v>
+      </c>
+      <c r="C225" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>259942</v>
+      </c>
+      <c r="B226" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>259950</v>
+      </c>
+      <c r="B227" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>278734</v>
+      </c>
+      <c r="B228" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>278742</v>
+      </c>
+      <c r="B229" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>346853</v>
+      </c>
+      <c r="B230" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>346861</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>346888</v>
+      </c>
+      <c r="B232" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2031647</v>
+      </c>
+      <c r="B233" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2089181</v>
+      </c>
+      <c r="B234" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2089203</v>
+      </c>
+      <c r="B235" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2136058</v>
+      </c>
+      <c r="B236" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2288729</v>
+      </c>
+      <c r="B237" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2089726</v>
+      </c>
+      <c r="B238" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2084422</v>
+      </c>
+      <c r="B239" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>763241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>619302</v>
+      </c>
+      <c r="B241" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>500437</v>
+      </c>
+      <c r="B242" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>500429</v>
+      </c>
+      <c r="B243" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>394971</v>
+      </c>
+      <c r="B244" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2291940</v>
+      </c>
+      <c r="B245" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>795607</v>
+      </c>
+      <c r="B246" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>443123</v>
+      </c>
+      <c r="B247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>355763</v>
+      </c>
+      <c r="B248" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>355658</v>
+      </c>
+      <c r="B249" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>355615</v>
+      </c>
+      <c r="B250" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>355607</v>
+      </c>
+      <c r="B251" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>254924</v>
+      </c>
+      <c r="B252" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>254916</v>
+      </c>
+      <c r="B253" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>754285</v>
+      </c>
+      <c r="B254" t="s">
+        <v>232</v>
+      </c>
+      <c r="C254" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>754293</v>
+      </c>
+      <c r="B255" t="s">
+        <v>233</v>
+      </c>
+      <c r="C255" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>754307</v>
+      </c>
+      <c r="B256" t="s">
+        <v>234</v>
+      </c>
+      <c r="C256" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>754315</v>
+      </c>
+      <c r="B257" t="s">
+        <v>235</v>
+      </c>
+      <c r="C257" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>520799</v>
+      </c>
+      <c r="B258" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2390396</v>
+      </c>
+      <c r="B259" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2390388</v>
+      </c>
+      <c r="B260" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>261645</v>
+      </c>
+      <c r="B261" t="s">
+        <v>239</v>
+      </c>
+      <c r="C261" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>495298</v>
+      </c>
+      <c r="B262" t="s">
+        <v>240</v>
+      </c>
+      <c r="C262" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2109778</v>
+      </c>
+      <c r="B263" t="s">
+        <v>239</v>
+      </c>
+      <c r="C263" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2274884</v>
+      </c>
+      <c r="B264" t="s">
+        <v>241</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2274892</v>
+      </c>
+      <c r="B265" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2274906</v>
+      </c>
+      <c r="B266" t="s">
+        <v>243</v>
+      </c>
+      <c r="C266" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2346370</v>
+      </c>
+      <c r="B267" t="s">
+        <v>244</v>
+      </c>
+      <c r="C267" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2349329</v>
+      </c>
+      <c r="B268" t="s">
+        <v>239</v>
+      </c>
+      <c r="C268" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>797960</v>
+      </c>
+      <c r="B269" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>797952</v>
+      </c>
+      <c r="B270" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>343617</v>
+      </c>
+      <c r="B271" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>343625</v>
+      </c>
+      <c r="B272" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2033798</v>
+      </c>
+      <c r="B273" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2033771</v>
+      </c>
+      <c r="B274" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>475777</v>
+      </c>
+      <c r="B275" t="s">
+        <v>249</v>
+      </c>
+      <c r="C275" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2227371</v>
+      </c>
+      <c r="B276" t="s">
+        <v>250</v>
+      </c>
+      <c r="C276" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2227320</v>
+      </c>
+      <c r="B277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C277" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2116782</v>
+      </c>
+      <c r="B278" t="s">
+        <v>252</v>
+      </c>
+      <c r="C278" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>437204</v>
+      </c>
+      <c r="B279" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2510936</v>
+      </c>
+      <c r="B280" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>242675</v>
+      </c>
+      <c r="B281" t="s">
+        <v>255</v>
+      </c>
+      <c r="C281" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>242756</v>
+      </c>
+      <c r="B282" t="s">
+        <v>256</v>
+      </c>
+      <c r="C282" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>481262</v>
+      </c>
+      <c r="B283" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2520990</v>
+      </c>
+      <c r="B284" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2521008</v>
+      </c>
+      <c r="B285" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>224235</v>
+      </c>
+      <c r="B286" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>224308</v>
+      </c>
+      <c r="B287" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2247437</v>
+      </c>
+      <c r="B288" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>748390</v>
+      </c>
+      <c r="B289" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>747629</v>
+      </c>
+      <c r="B290" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>255882</v>
+      </c>
+      <c r="B291" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>263206</v>
+      </c>
+      <c r="B292" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>702358</v>
+      </c>
+      <c r="B293" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2202212</v>
+      </c>
+      <c r="B294" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2202204</v>
+      </c>
+      <c r="B295" t="s">
+        <v>264</v>
+      </c>
+      <c r="C295" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2432579</v>
+      </c>
+      <c r="B296" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2432587</v>
+      </c>
+      <c r="B297" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2432595</v>
+      </c>
+      <c r="B298" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>300454</v>
+      </c>
+      <c r="B299" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>636134</v>
+      </c>
+      <c r="B300" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>636142</v>
+      </c>
+      <c r="B301" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>772062</v>
+      </c>
+      <c r="B302" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2093596</v>
+      </c>
+      <c r="B303" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>474525</v>
+      </c>
+      <c r="B304" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>310883</v>
+      </c>
+      <c r="B305" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>225592</v>
+      </c>
+      <c r="B306" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2235633</v>
+      </c>
+      <c r="B307" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>759716</v>
+      </c>
+      <c r="B308" t="s">
+        <v>275</v>
+      </c>
+      <c r="C308" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>759732</v>
+      </c>
+      <c r="B309" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2377152</v>
+      </c>
+      <c r="B310" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2377160</v>
+      </c>
+      <c r="B311" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2377179</v>
+      </c>
+      <c r="B312" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2377187</v>
+      </c>
+      <c r="B313" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2428091</v>
+      </c>
+      <c r="B314" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2428105</v>
+      </c>
+      <c r="B315" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2428113</v>
+      </c>
+      <c r="B316" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2428121</v>
+      </c>
+      <c r="B317" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>358444</v>
+      </c>
+      <c r="B318" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>747734</v>
+      </c>
+      <c r="B319" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>428922</v>
+      </c>
+      <c r="B320" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>428949</v>
+      </c>
+      <c r="B321" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>